--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>811</v>
+        <v>816.2655584213176</v>
       </c>
       <c r="C2">
-        <v>1157</v>
+        <v>1165.712211379992</v>
       </c>
       <c r="D2">
-        <v>1372</v>
+        <v>1378.339868674436</v>
       </c>
       <c r="E2">
-        <v>1536</v>
+        <v>1540.366991430833</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>852</v>
+        <v>857.5566018388613</v>
       </c>
       <c r="C3">
-        <v>1204</v>
+        <v>1212.959743826953</v>
       </c>
       <c r="D3">
-        <v>1408</v>
+        <v>1413.480483055562</v>
       </c>
       <c r="E3">
-        <v>1559</v>
+        <v>1565.302392880995</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>734</v>
+        <v>741.6630058926968</v>
       </c>
       <c r="C4">
-        <v>1066</v>
+        <v>1073.324544809446</v>
       </c>
       <c r="D4">
-        <v>1281</v>
+        <v>1286.876200652406</v>
       </c>
       <c r="E4">
-        <v>1451</v>
+        <v>1457.830666557993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>911</v>
+        <v>917.083831534653</v>
       </c>
       <c r="C5">
-        <v>1275</v>
+        <v>1282.391924194888</v>
       </c>
       <c r="D5">
-        <v>1446</v>
+        <v>1456.000842794155</v>
       </c>
       <c r="E5">
-        <v>1595</v>
+        <v>1601.191988968261</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>895</v>
+        <v>901.9208893662466</v>
       </c>
       <c r="C6">
-        <v>1257</v>
+        <v>1264.196820163211</v>
       </c>
       <c r="D6">
-        <v>1433</v>
+        <v>1438.88443609094</v>
       </c>
       <c r="E6">
-        <v>1583</v>
+        <v>1587.64886275616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>935</v>
+        <v>939.6353147012608</v>
       </c>
       <c r="C7">
-        <v>1299</v>
+        <v>1306.110061062109</v>
       </c>
       <c r="D7">
-        <v>1482</v>
+        <v>1490.093466445672</v>
       </c>
       <c r="E7">
-        <v>1609</v>
+        <v>1614.422536682491</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>827</v>
+        <v>833.2110855707815</v>
       </c>
       <c r="C8">
-        <v>1182</v>
+        <v>1187.12235824837</v>
       </c>
       <c r="D8">
-        <v>1389</v>
+        <v>1396.417172492213</v>
       </c>
       <c r="E8">
-        <v>1516</v>
+        <v>1524.716381781736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>941</v>
+        <v>946.7832509100929</v>
       </c>
       <c r="C9">
-        <v>1311</v>
+        <v>1318.465130650536</v>
       </c>
       <c r="D9">
-        <v>1497</v>
+        <v>1503.626982662522</v>
       </c>
       <c r="E9">
-        <v>1620</v>
+        <v>1628.197875621464</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>957</v>
+        <v>962.4164304111293</v>
       </c>
       <c r="C10">
-        <v>1313</v>
+        <v>1318.515521661503</v>
       </c>
       <c r="D10">
-        <v>1485</v>
+        <v>1487.419970879135</v>
       </c>
       <c r="E10">
-        <v>1592</v>
+        <v>1596.381014948465</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>949</v>
+        <v>953.6963681437817</v>
       </c>
       <c r="C11">
-        <v>1299</v>
+        <v>1305.448640131307</v>
       </c>
       <c r="D11">
-        <v>1464</v>
+        <v>1472.247238057132</v>
       </c>
       <c r="E11">
-        <v>1577</v>
+        <v>1580.998156961288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>873</v>
+        <v>877.6914250533716</v>
       </c>
       <c r="C12">
-        <v>1156</v>
+        <v>1162.266216930732</v>
       </c>
       <c r="D12">
-        <v>1265</v>
+        <v>1268.238832989708</v>
       </c>
       <c r="E12">
-        <v>1343</v>
+        <v>1344.132768786582</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>952</v>
+        <v>957.8519584561764</v>
       </c>
       <c r="C13">
-        <v>1305</v>
+        <v>1310.593135206027</v>
       </c>
       <c r="D13">
-        <v>1473</v>
+        <v>1476.087934504065</v>
       </c>
       <c r="E13">
-        <v>1578</v>
+        <v>1583.751461116511</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>816.2655584213176</v>
+        <v>816.2655584213173</v>
       </c>
       <c r="C2">
-        <v>1165.712211379992</v>
+        <v>1165.712211379993</v>
       </c>
       <c r="D2">
-        <v>1378.339868674436</v>
+        <v>1378.339868674437</v>
       </c>
       <c r="E2">
         <v>1540.366991430833</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>857.5566018388613</v>
+        <v>857.5566018388612</v>
       </c>
       <c r="C3">
-        <v>1212.959743826953</v>
+        <v>1212.959743826952</v>
       </c>
       <c r="D3">
         <v>1413.480483055562</v>
       </c>
       <c r="E3">
-        <v>1565.302392880995</v>
+        <v>1565.302392880996</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>741.6630058926968</v>
+        <v>741.6630058926967</v>
       </c>
       <c r="C4">
         <v>1073.324544809446</v>
       </c>
       <c r="D4">
-        <v>1286.876200652406</v>
+        <v>1286.876200652407</v>
       </c>
       <c r="E4">
-        <v>1457.830666557993</v>
+        <v>1457.830666557994</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>917.083831534653</v>
+        <v>917.0838315346533</v>
       </c>
       <c r="C5">
         <v>1282.391924194888</v>
@@ -448,7 +448,7 @@
         <v>1456.000842794155</v>
       </c>
       <c r="E5">
-        <v>1601.191988968261</v>
+        <v>1601.191988968262</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>901.9208893662466</v>
+        <v>901.920889366247</v>
       </c>
       <c r="C6">
-        <v>1264.196820163211</v>
+        <v>1264.196820163212</v>
       </c>
       <c r="D6">
-        <v>1438.88443609094</v>
+        <v>1438.884436090939</v>
       </c>
       <c r="E6">
         <v>1587.64886275616</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>939.6353147012608</v>
+        <v>939.6353147012605</v>
       </c>
       <c r="C7">
         <v>1306.110061062109</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.2110855707815</v>
+        <v>833.2110855707808</v>
       </c>
       <c r="C8">
-        <v>1187.12235824837</v>
+        <v>1187.122358248369</v>
       </c>
       <c r="D8">
-        <v>1396.417172492213</v>
+        <v>1396.417172492214</v>
       </c>
       <c r="E8">
         <v>1524.716381781736</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>946.7832509100929</v>
+        <v>946.7832509100923</v>
       </c>
       <c r="C9">
-        <v>1318.465130650536</v>
+        <v>1318.465130650537</v>
       </c>
       <c r="D9">
-        <v>1503.626982662522</v>
+        <v>1503.626982662524</v>
       </c>
       <c r="E9">
-        <v>1628.197875621464</v>
+        <v>1628.197875621465</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>962.4164304111293</v>
+        <v>962.4164304111298</v>
       </c>
       <c r="C10">
-        <v>1318.515521661503</v>
+        <v>1318.515521661502</v>
       </c>
       <c r="D10">
         <v>1487.419970879135</v>
       </c>
       <c r="E10">
-        <v>1596.381014948465</v>
+        <v>1596.381014948466</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>953.6963681437817</v>
+        <v>953.696368143782</v>
       </c>
       <c r="C11">
         <v>1305.448640131307</v>
       </c>
       <c r="D11">
-        <v>1472.247238057132</v>
+        <v>1472.247238057133</v>
       </c>
       <c r="E11">
-        <v>1580.998156961288</v>
+        <v>1580.998156961286</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>877.6914250533716</v>
+        <v>877.6914250533717</v>
       </c>
       <c r="C12">
         <v>1162.266216930732</v>
       </c>
       <c r="D12">
-        <v>1268.238832989708</v>
+        <v>1268.238832989709</v>
       </c>
       <c r="E12">
         <v>1344.132768786582</v>
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>957.8519584561764</v>
+        <v>957.8519584561759</v>
       </c>
       <c r="C13">
         <v>1310.593135206027</v>
       </c>
       <c r="D13">
-        <v>1476.087934504065</v>
+        <v>1476.087934504066</v>
       </c>
       <c r="E13">
         <v>1583.751461116511</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>816.2655584213173</v>
+        <v>816</v>
       </c>
       <c r="C2">
-        <v>1165.712211379993</v>
+        <v>1166</v>
       </c>
       <c r="D2">
-        <v>1378.339868674437</v>
+        <v>1378</v>
       </c>
       <c r="E2">
-        <v>1540.366991430833</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>857.5566018388612</v>
+        <v>858</v>
       </c>
       <c r="C3">
-        <v>1212.959743826952</v>
+        <v>1213</v>
       </c>
       <c r="D3">
-        <v>1413.480483055562</v>
+        <v>1413</v>
       </c>
       <c r="E3">
-        <v>1565.302392880996</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>741.6630058926967</v>
+        <v>742</v>
       </c>
       <c r="C4">
-        <v>1073.324544809446</v>
+        <v>1073</v>
       </c>
       <c r="D4">
-        <v>1286.876200652407</v>
+        <v>1287</v>
       </c>
       <c r="E4">
-        <v>1457.830666557994</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>917.0838315346533</v>
+        <v>917</v>
       </c>
       <c r="C5">
-        <v>1282.391924194888</v>
+        <v>1282</v>
       </c>
       <c r="D5">
-        <v>1456.000842794155</v>
+        <v>1456</v>
       </c>
       <c r="E5">
-        <v>1601.191988968262</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>901.920889366247</v>
+        <v>902</v>
       </c>
       <c r="C6">
-        <v>1264.196820163212</v>
+        <v>1264</v>
       </c>
       <c r="D6">
-        <v>1438.884436090939</v>
+        <v>1439</v>
       </c>
       <c r="E6">
-        <v>1587.64886275616</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>939.6353147012605</v>
+        <v>940</v>
       </c>
       <c r="C7">
-        <v>1306.110061062109</v>
+        <v>1306</v>
       </c>
       <c r="D7">
-        <v>1490.093466445672</v>
+        <v>1490</v>
       </c>
       <c r="E7">
-        <v>1614.422536682491</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.2110855707808</v>
+        <v>833</v>
       </c>
       <c r="C8">
-        <v>1187.122358248369</v>
+        <v>1187</v>
       </c>
       <c r="D8">
-        <v>1396.417172492214</v>
+        <v>1396</v>
       </c>
       <c r="E8">
-        <v>1524.716381781736</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>946.7832509100923</v>
+        <v>947</v>
       </c>
       <c r="C9">
-        <v>1318.465130650537</v>
+        <v>1318</v>
       </c>
       <c r="D9">
-        <v>1503.626982662524</v>
+        <v>1504</v>
       </c>
       <c r="E9">
-        <v>1628.197875621465</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>962.4164304111298</v>
+        <v>962</v>
       </c>
       <c r="C10">
-        <v>1318.515521661502</v>
+        <v>1319</v>
       </c>
       <c r="D10">
-        <v>1487.419970879135</v>
+        <v>1487</v>
       </c>
       <c r="E10">
-        <v>1596.381014948466</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>953.696368143782</v>
+        <v>954</v>
       </c>
       <c r="C11">
-        <v>1305.448640131307</v>
+        <v>1305</v>
       </c>
       <c r="D11">
-        <v>1472.247238057133</v>
+        <v>1472</v>
       </c>
       <c r="E11">
-        <v>1580.998156961286</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>877.6914250533717</v>
+        <v>878</v>
       </c>
       <c r="C12">
-        <v>1162.266216930732</v>
+        <v>1162</v>
       </c>
       <c r="D12">
-        <v>1268.238832989709</v>
+        <v>1268</v>
       </c>
       <c r="E12">
-        <v>1344.132768786582</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>957.8519584561759</v>
+        <v>958</v>
       </c>
       <c r="C13">
-        <v>1310.593135206027</v>
+        <v>1311</v>
       </c>
       <c r="D13">
-        <v>1476.087934504066</v>
+        <v>1476</v>
       </c>
       <c r="E13">
-        <v>1583.751461116511</v>
+        <v>1584</v>
       </c>
     </row>
   </sheetData>
